--- a/documentation/ODDJ_TC_Liste Metadonnées_VIFG-CCAS.xlsx
+++ b/documentation/ODDJ_TC_Liste Metadonnées_VIFG-CCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastien.courvoisie\Documents\GitHub\juritcom\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811BC8F9-CC23-4EEB-961E-6A001C5B6815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF78BCFB-739B-4BA4-BA40-9AD49DECFB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45570" yWindow="-11295" windowWidth="15990" windowHeight="24990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste métadonnees TCOM-V240507" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="170">
   <si>
     <t>parties</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t xml:space="preserve">Libellé type affaire </t>
-  </si>
-  <si>
-    <t>GREFFIER, JUGE, PROCUREUR, PRESIDENT</t>
   </si>
   <si>
     <t>A VERIFIER s'il existe un réferentiel Infogreffe qui distingue les TC et les TC MIXTE</t>
@@ -636,6 +633,15 @@
   </si>
   <si>
     <t>occultation des motifs (secret des affaires) (`boolean`)</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-20</t>
+  </si>
+  <si>
+    <t>"GRF", "JUG", "PDT", "PRO", "JUS" (GRF – Greffier, JUG – Juge, PDT – Président, PRO – Procureur, JUS – Juge suppléant)</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1119,11 +1125,88 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1283,41 +1366,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1495,12 +1543,12 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{40518603-F1A6-4EB4-B53A-D49873AE7B28}" name="Propriété" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B1F5114-B8F4-4BA7-94D1-9CBE479C2749}" name="Type " dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4D41DA24-6A55-4EE3-8E17-DF1C5538A8AD}" name="Taille " dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{591339CF-D6CD-44B1-A1A2-976FE99CD57D}" name="Obligatoire " dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{81E3871C-7E6B-4C23-910A-AC18030C4BD2}" name="Revue CNGTC" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{02AF7075-0EE0-47EB-9159-4280D9F794D4}" name="A uniformiser ? " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3A066CAC-4CC5-4BCC-B6A0-5CE762F23952}" name="Détail donnée " dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C67E463F-7FB0-4601-8204-07DC5620D3F3}" name="Commentaire " dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{4D41DA24-6A55-4EE3-8E17-DF1C5538A8AD}" name="Taille " dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{591339CF-D6CD-44B1-A1A2-976FE99CD57D}" name="Obligatoire " dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{81E3871C-7E6B-4C23-910A-AC18030C4BD2}" name="Revue CNGTC" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{02AF7075-0EE0-47EB-9159-4280D9F794D4}" name="A uniformiser ? " dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3A066CAC-4CC5-4BCC-B6A0-5CE762F23952}" name="Détail donnée " dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{C67E463F-7FB0-4601-8204-07DC5620D3F3}" name="Commentaire " dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1817,10 +1865,10 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,7 +1876,7 @@
     <col min="1" max="3" width="2.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="104" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="85" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
@@ -1845,19 +1893,19 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="105" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>96</v>
@@ -1872,19 +1920,19 @@
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="F3" s="106"/>
       <c r="G3" s="61" t="s">
         <v>92</v>
       </c>
       <c r="H3" s="87"/>
       <c r="I3" s="7"/>
       <c r="J3" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K3" s="8"/>
     </row>
@@ -1893,12 +1941,12 @@
       <c r="B4" s="26"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="107"/>
       <c r="G4" s="12" t="s">
         <v>92</v>
       </c>
@@ -1910,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1921,9 +1969,9 @@
         <v>1</v>
       </c>
       <c r="E5" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="16"/>
+        <v>143</v>
+      </c>
+      <c r="F5" s="108"/>
       <c r="G5" s="16"/>
       <c r="H5" s="89"/>
       <c r="I5" s="16"/>
@@ -1942,7 +1990,7 @@
       <c r="E6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="20" t="s">
         <v>92</v>
       </c>
@@ -1962,13 +2010,13 @@
       <c r="B7" s="26"/>
       <c r="C7" s="29"/>
       <c r="D7" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20">
-        <v>4</v>
+      <c r="F7" s="110" t="s">
+        <v>167</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>92</v>
@@ -1994,7 +2042,7 @@
       <c r="E8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="109">
         <v>4</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -2014,12 +2062,12 @@
       <c r="B9" s="26"/>
       <c r="C9" s="29"/>
       <c r="D9" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="20" t="s">
         <v>92</v>
       </c>
@@ -2031,7 +2079,7 @@
         <v>94</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2044,7 +2092,7 @@
       <c r="E10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="110">
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
@@ -2069,8 +2117,8 @@
       <c r="E11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="20">
-        <v>20</v>
+      <c r="F11" s="110" t="s">
+        <v>168</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>92</v>
@@ -2089,12 +2137,12 @@
       <c r="B12" s="28"/>
       <c r="C12" s="27"/>
       <c r="D12" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="20" t="s">
         <v>59</v>
       </c>
@@ -2106,7 +2154,7 @@
         <v>69</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2119,7 +2167,7 @@
       <c r="E13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="20" t="s">
         <v>59</v>
       </c>
@@ -2139,12 +2187,12 @@
       <c r="B14" s="28"/>
       <c r="C14" s="27"/>
       <c r="D14" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="20" t="s">
         <v>59</v>
       </c>
@@ -2156,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2169,7 +2217,7 @@
       <c r="E15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="20"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="20" t="s">
         <v>59</v>
       </c>
@@ -2181,7 +2229,7 @@
         <v>28</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -2189,12 +2237,12 @@
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
       <c r="D16" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="20" t="s">
         <v>59</v>
       </c>
@@ -2206,7 +2254,7 @@
         <v>72</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -2219,7 +2267,7 @@
       <c r="E17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="20" t="s">
         <v>59</v>
       </c>
@@ -2244,7 +2292,7 @@
       <c r="E18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="20" t="s">
         <v>92</v>
       </c>
@@ -2256,7 +2304,7 @@
         <v>32</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2269,7 +2317,7 @@
       <c r="E19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="20" t="s">
         <v>92</v>
       </c>
@@ -2278,10 +2326,10 @@
         <v>92</v>
       </c>
       <c r="J19" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -2294,7 +2342,7 @@
       <c r="E20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="7" t="s">
         <v>92</v>
       </c>
@@ -2312,24 +2360,24 @@
       <c r="B21" s="39"/>
       <c r="C21" s="34"/>
       <c r="D21" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="F21" s="111"/>
       <c r="G21" s="84" t="s">
         <v>59</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="38" t="s">
         <v>83</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="96" x14ac:dyDescent="0.25">
@@ -2342,21 +2390,21 @@
       <c r="E22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="46" t="s">
         <v>59</v>
       </c>
       <c r="H22" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I22" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J22" s="21" t="s">
-        <v>104</v>
+      <c r="J22" s="118" t="s">
+        <v>169</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2369,7 +2417,7 @@
       <c r="E23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="109"/>
       <c r="G23" s="20" t="s">
         <v>92</v>
       </c>
@@ -2379,7 +2427,7 @@
       </c>
       <c r="J23" s="21"/>
       <c r="K23" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -2392,7 +2440,7 @@
       <c r="E24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="20" t="s">
         <v>59</v>
       </c>
@@ -2413,7 +2461,7 @@
       <c r="E25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="109"/>
       <c r="G25" s="20" t="s">
         <v>59</v>
       </c>
@@ -2430,7 +2478,7 @@
       <c r="C26" s="39"/>
       <c r="D26" s="74"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="111"/>
       <c r="G26" s="37"/>
       <c r="H26" s="94"/>
       <c r="I26" s="37"/>
@@ -2445,9 +2493,9 @@
         <v>0</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="32"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="112"/>
       <c r="G27" s="32" t="s">
         <v>92</v>
       </c>
@@ -2470,7 +2518,7 @@
       <c r="E28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="110">
         <v>2</v>
       </c>
       <c r="G28" s="20" t="s">
@@ -2491,7 +2539,7 @@
       <c r="C29" s="26"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="109"/>
       <c r="G29" s="20"/>
       <c r="H29" s="90"/>
       <c r="I29" s="20"/>
@@ -2499,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="K29" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,15 +2556,15 @@
       <c r="C30" s="28"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="109"/>
       <c r="G30" s="20"/>
       <c r="H30" s="90"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="84" x14ac:dyDescent="0.25">
@@ -2529,7 +2577,7 @@
       <c r="E31" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="109"/>
       <c r="G31" s="20" t="s">
         <v>92</v>
       </c>
@@ -2538,10 +2586,10 @@
         <v>92</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2549,12 +2597,12 @@
       <c r="B32" s="40"/>
       <c r="C32" s="28"/>
       <c r="D32" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="20"/>
+      <c r="F32" s="109"/>
       <c r="G32" s="20" t="s">
         <v>59</v>
       </c>
@@ -2575,12 +2623,12 @@
       <c r="E33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="20"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="46" t="s">
         <v>59</v>
       </c>
       <c r="H33" s="93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I33" s="20" t="s">
         <v>92</v>
@@ -2589,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2597,12 +2645,12 @@
       <c r="B34" s="40"/>
       <c r="C34" s="28"/>
       <c r="D34" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="20"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="20" t="s">
         <v>59</v>
       </c>
@@ -2618,12 +2666,12 @@
       <c r="B35" s="40"/>
       <c r="C35" s="26"/>
       <c r="D35" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="20"/>
+      <c r="F35" s="109"/>
       <c r="G35" s="20" t="s">
         <v>59</v>
       </c>
@@ -2633,7 +2681,7 @@
         <v>77</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2646,7 +2694,7 @@
       <c r="E36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="20"/>
+      <c r="F36" s="109"/>
       <c r="G36" s="20" t="s">
         <v>59</v>
       </c>
@@ -2667,7 +2715,7 @@
       <c r="E37" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="109">
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
@@ -2681,7 +2729,7 @@
         <v>24</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2690,7 +2738,7 @@
       <c r="C38" s="28"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="109"/>
       <c r="G38" s="20"/>
       <c r="H38" s="90"/>
       <c r="I38" s="20"/>
@@ -2705,7 +2753,7 @@
       <c r="C39" s="26"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="109"/>
       <c r="G39" s="20"/>
       <c r="H39" s="90"/>
       <c r="I39" s="20"/>
@@ -2713,7 +2761,7 @@
         <v>84</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2722,7 +2770,7 @@
       <c r="C40" s="28"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
+      <c r="F40" s="109"/>
       <c r="G40" s="20"/>
       <c r="H40" s="90"/>
       <c r="I40" s="20"/>
@@ -2730,7 +2778,7 @@
         <v>85</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -2739,7 +2787,7 @@
       <c r="C41" s="26"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
+      <c r="F41" s="109"/>
       <c r="G41" s="20"/>
       <c r="H41" s="90"/>
       <c r="I41" s="20"/>
@@ -2747,7 +2795,7 @@
         <v>86</v>
       </c>
       <c r="K41" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,24 +2803,24 @@
       <c r="B42" s="40"/>
       <c r="C42" s="28"/>
       <c r="D42" s="79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E42" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="81"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="81" t="s">
         <v>92</v>
       </c>
       <c r="H42" s="96"/>
       <c r="I42" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="J42" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="J42" s="82" t="s">
+      <c r="K42" s="83" t="s">
         <v>156</v>
-      </c>
-      <c r="K42" s="83" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="36" x14ac:dyDescent="0.25">
@@ -2783,9 +2831,9 @@
         <v>41</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="44"/>
+        <v>143</v>
+      </c>
+      <c r="F43" s="114"/>
       <c r="G43" s="44" t="s">
         <v>60</v>
       </c>
@@ -2803,12 +2851,12 @@
       <c r="B44" s="40"/>
       <c r="C44" s="41"/>
       <c r="D44" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="20"/>
+      <c r="F44" s="109"/>
       <c r="G44" s="20" t="s">
         <v>59</v>
       </c>
@@ -2829,7 +2877,7 @@
       <c r="E45" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="F45" s="109"/>
       <c r="G45" s="20" t="s">
         <v>60</v>
       </c>
@@ -2847,12 +2895,12 @@
       <c r="B46" s="40"/>
       <c r="C46" s="41"/>
       <c r="D46" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="109"/>
       <c r="G46" s="20" t="s">
         <v>59</v>
       </c>
@@ -2870,12 +2918,12 @@
       <c r="B47" s="40"/>
       <c r="C47" s="41"/>
       <c r="D47" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="109"/>
       <c r="G47" s="20" t="s">
         <v>60</v>
       </c>
@@ -2891,12 +2939,12 @@
       <c r="B48" s="40"/>
       <c r="C48" s="41"/>
       <c r="D48" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="109"/>
       <c r="G48" s="20" t="s">
         <v>59</v>
       </c>
@@ -2912,12 +2960,12 @@
       <c r="B49" s="40"/>
       <c r="C49" s="41"/>
       <c r="D49" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="109"/>
       <c r="G49" s="20" t="s">
         <v>60</v>
       </c>
@@ -2933,12 +2981,12 @@
       <c r="B50" s="40"/>
       <c r="C50" s="41"/>
       <c r="D50" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="109"/>
       <c r="G50" s="20" t="s">
         <v>59</v>
       </c>
@@ -2957,7 +3005,7 @@
       <c r="C51" s="41"/>
       <c r="D51" s="68"/>
       <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
+      <c r="F51" s="114"/>
       <c r="G51" s="44"/>
       <c r="H51" s="97"/>
       <c r="I51" s="44"/>
@@ -2970,7 +3018,7 @@
       <c r="C52" s="40"/>
       <c r="D52" s="71"/>
       <c r="E52" s="31"/>
-      <c r="F52" s="32"/>
+      <c r="F52" s="112"/>
       <c r="G52" s="32"/>
       <c r="H52" s="95"/>
       <c r="I52" s="32"/>
@@ -2984,7 +3032,7 @@
       <c r="E53" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="48"/>
+      <c r="F53" s="115"/>
       <c r="G53" s="48" t="s">
         <v>60</v>
       </c>
@@ -2996,7 +3044,7 @@
         <v>61</v>
       </c>
       <c r="K53" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="50" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.25">
@@ -3006,7 +3054,7 @@
       <c r="E54" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="52"/>
+      <c r="F54" s="116"/>
       <c r="G54" s="52" t="s">
         <v>92</v>
       </c>
@@ -3018,7 +3066,7 @@
         <v>79</v>
       </c>
       <c r="K54" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="50" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3076,7 @@
       <c r="E55" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="52"/>
+      <c r="F55" s="116"/>
       <c r="G55" s="52" t="s">
         <v>59</v>
       </c>
@@ -3040,7 +3088,7 @@
         <v>80</v>
       </c>
       <c r="K55" s="53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="50" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.25">
@@ -3048,7 +3096,7 @@
         <v>88</v>
       </c>
       <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
+      <c r="F56" s="115"/>
       <c r="G56" s="48" t="s">
         <v>59</v>
       </c>
@@ -3058,7 +3106,7 @@
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3068,7 +3116,7 @@
       <c r="E57" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="52"/>
+      <c r="F57" s="116"/>
       <c r="G57" s="52" t="s">
         <v>92</v>
       </c>
@@ -3088,7 +3136,7 @@
       <c r="E58" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="52"/>
+      <c r="F58" s="116"/>
       <c r="G58" s="52" t="s">
         <v>59</v>
       </c>
@@ -3108,7 +3156,7 @@
       <c r="E59" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="116"/>
       <c r="G59" s="52" t="s">
         <v>59</v>
       </c>
@@ -3126,7 +3174,7 @@
         <v>82</v>
       </c>
       <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
+      <c r="F60" s="115"/>
       <c r="G60" s="48" t="s">
         <v>60</v>
       </c>
@@ -3136,7 +3184,7 @@
       </c>
       <c r="J60" s="49"/>
       <c r="K60" s="49" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3146,7 +3194,7 @@
       <c r="E61" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="52"/>
+      <c r="F61" s="116"/>
       <c r="G61" s="52" t="s">
         <v>92</v>
       </c>
@@ -3166,7 +3214,7 @@
       <c r="E62" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="52"/>
+      <c r="F62" s="116"/>
       <c r="G62" s="52" t="s">
         <v>59</v>
       </c>
@@ -3186,7 +3234,7 @@
       <c r="E63" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="52"/>
+      <c r="F63" s="116"/>
       <c r="G63" s="52" t="s">
         <v>59</v>
       </c>
@@ -3207,9 +3255,9 @@
         <v>35</v>
       </c>
       <c r="E64" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="56"/>
+        <v>143</v>
+      </c>
+      <c r="F64" s="117"/>
       <c r="G64" s="58" t="s">
         <v>92</v>
       </c>
@@ -3219,7 +3267,7 @@
         <v>34</v>
       </c>
       <c r="K64" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
@@ -3232,7 +3280,7 @@
       <c r="E65" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F65" s="20"/>
+      <c r="F65" s="109"/>
       <c r="G65" s="20" t="s">
         <v>92</v>
       </c>
@@ -3255,7 +3303,7 @@
       <c r="E66" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F66" s="20"/>
+      <c r="F66" s="109"/>
       <c r="G66" s="20" t="s">
         <v>92</v>
       </c>
@@ -3278,7 +3326,7 @@
       <c r="E67" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="20"/>
+      <c r="F67" s="109"/>
       <c r="G67" s="20" t="s">
         <v>92</v>
       </c>
@@ -3301,7 +3349,7 @@
       <c r="E68" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F68" s="20"/>
+      <c r="F68" s="109"/>
       <c r="G68" s="20" t="s">
         <v>92</v>
       </c>
@@ -3324,7 +3372,7 @@
       <c r="E69" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="20"/>
+      <c r="F69" s="109"/>
       <c r="G69" s="20" t="s">
         <v>92</v>
       </c>
@@ -3347,7 +3395,7 @@
       <c r="E70" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="20"/>
+      <c r="F70" s="109"/>
       <c r="G70" s="20" t="s">
         <v>92</v>
       </c>
@@ -3370,7 +3418,7 @@
       <c r="E71" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="20"/>
+      <c r="F71" s="109"/>
       <c r="G71" s="20" t="s">
         <v>92</v>
       </c>
@@ -3393,7 +3441,7 @@
       <c r="E72" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="20"/>
+      <c r="F72" s="109"/>
       <c r="G72" s="20" t="s">
         <v>92</v>
       </c>
@@ -3411,12 +3459,12 @@
       <c r="B73" s="54"/>
       <c r="C73" s="28"/>
       <c r="D73" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="20"/>
+      <c r="F73" s="109"/>
       <c r="G73" s="20" t="s">
         <v>92</v>
       </c>
@@ -3434,12 +3482,12 @@
       <c r="B74" s="54"/>
       <c r="C74" s="26"/>
       <c r="D74" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F74" s="20"/>
+      <c r="F74" s="109"/>
       <c r="G74" s="20" t="s">
         <v>92</v>
       </c>
@@ -3448,7 +3496,7 @@
         <v>92</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K74" s="21"/>
     </row>
@@ -3457,12 +3505,12 @@
       <c r="B75" s="54"/>
       <c r="C75" s="28"/>
       <c r="D75" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F75" s="20"/>
+      <c r="F75" s="109"/>
       <c r="G75" s="20" t="s">
         <v>92</v>
       </c>
@@ -3471,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K75" s="102"/>
     </row>
@@ -3485,7 +3533,7 @@
       <c r="E76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="20"/>
+      <c r="F76" s="109"/>
       <c r="G76" s="20" t="s">
         <v>59</v>
       </c>
@@ -3508,7 +3556,7 @@
       <c r="E77" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="20"/>
+      <c r="F77" s="109"/>
       <c r="G77" s="20" t="s">
         <v>59</v>
       </c>
@@ -3527,7 +3575,7 @@
       <c r="C78" s="54"/>
       <c r="D78" s="64"/>
       <c r="E78" s="55"/>
-      <c r="F78" s="56"/>
+      <c r="F78" s="117"/>
       <c r="G78" s="56"/>
       <c r="H78" s="101"/>
       <c r="I78" s="56"/>
@@ -3540,7 +3588,7 @@
       <c r="C79" s="25"/>
       <c r="D79" s="66"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="16"/>
+      <c r="F79" s="108"/>
       <c r="G79" s="16"/>
       <c r="H79" s="89"/>
       <c r="I79" s="16"/>
@@ -3550,7 +3598,7 @@
     <row r="80" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D80" s="77"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="106"/>
       <c r="G80" s="7"/>
       <c r="H80" s="91"/>
       <c r="I80" s="7"/>
@@ -3560,7 +3608,7 @@
     <row r="81" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D81" s="77"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="106"/>
       <c r="G81" s="7"/>
       <c r="H81" s="91"/>
       <c r="I81" s="7"/>
@@ -3570,7 +3618,7 @@
     <row r="82" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D82" s="77"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="106"/>
       <c r="G82" s="7"/>
       <c r="H82" s="91"/>
       <c r="I82" s="7"/>
@@ -3580,7 +3628,7 @@
     <row r="83" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D83" s="77"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="106"/>
       <c r="G83" s="7"/>
       <c r="H83" s="91"/>
       <c r="I83" s="7"/>
@@ -3590,7 +3638,7 @@
     <row r="84" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="77"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="106"/>
       <c r="G84" s="7"/>
       <c r="H84" s="91"/>
       <c r="I84" s="7"/>
@@ -3600,7 +3648,7 @@
     <row r="85" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D85" s="77"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="106"/>
       <c r="G85" s="7"/>
       <c r="H85" s="91"/>
       <c r="I85" s="7"/>
@@ -3610,7 +3658,7 @@
     <row r="86" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D86" s="77"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="106"/>
       <c r="G86" s="7"/>
       <c r="H86" s="91"/>
       <c r="I86" s="7"/>
@@ -3620,7 +3668,7 @@
     <row r="87" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D87" s="77"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="106"/>
       <c r="G87" s="7"/>
       <c r="H87" s="91"/>
       <c r="I87" s="7"/>
@@ -3630,7 +3678,7 @@
     <row r="88" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D88" s="77"/>
       <c r="E88" s="6"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="106"/>
       <c r="G88" s="7"/>
       <c r="H88" s="91"/>
       <c r="I88" s="7"/>
@@ -3640,7 +3688,7 @@
     <row r="89" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D89" s="77"/>
       <c r="E89" s="6"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="106"/>
       <c r="G89" s="7"/>
       <c r="H89" s="91"/>
       <c r="I89" s="7"/>
@@ -3650,7 +3698,7 @@
     <row r="90" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D90" s="77"/>
       <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="106"/>
       <c r="G90" s="7"/>
       <c r="H90" s="91"/>
       <c r="I90" s="7"/>

--- a/documentation/ODDJ_TC_Liste Metadonnées_VIFG-CCAS.xlsx
+++ b/documentation/ODDJ_TC_Liste Metadonnées_VIFG-CCAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastien.courvoisie\Documents\GitHub\juritcom\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF78BCFB-739B-4BA4-BA40-9AD49DECFB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98663C57-D0D7-40E6-B359-BB41957ACA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-9915" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste métadonnees TCOM-V240507" sheetId="10" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="171">
   <si>
     <t>parties</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>"GRF", "JUG", "PDT", "PRO", "JUS" (GRF – Greffier, JUG – Juge, PDT – Président, PRO – Procureur, JUS – Juge suppléant)</t>
+  </si>
+  <si>
+    <t>pays</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1166,47 +1169,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="4" tint="0.59999389629810485"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1376,6 +1349,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4" tint="0.59999389629810485"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1538,17 +1547,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0837553B-685F-4516-82AE-A841326B33C2}" name="Tableau135" displayName="Tableau135" ref="D2:K90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="D2:K90" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0837553B-685F-4516-82AE-A841326B33C2}" name="Tableau135" displayName="Tableau135" ref="D2:K91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="D2:K91" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{40518603-F1A6-4EB4-B53A-D49873AE7B28}" name="Propriété" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B1F5114-B8F4-4BA7-94D1-9CBE479C2749}" name="Type " dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4D41DA24-6A55-4EE3-8E17-DF1C5538A8AD}" name="Taille " dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{591339CF-D6CD-44B1-A1A2-976FE99CD57D}" name="Obligatoire " dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{81E3871C-7E6B-4C23-910A-AC18030C4BD2}" name="Revue CNGTC" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{02AF7075-0EE0-47EB-9159-4280D9F794D4}" name="A uniformiser ? " dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3A066CAC-4CC5-4BCC-B6A0-5CE762F23952}" name="Détail donnée " dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{C67E463F-7FB0-4601-8204-07DC5620D3F3}" name="Commentaire " dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4D41DA24-6A55-4EE3-8E17-DF1C5538A8AD}" name="Taille " dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{591339CF-D6CD-44B1-A1A2-976FE99CD57D}" name="Obligatoire " dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{81E3871C-7E6B-4C23-910A-AC18030C4BD2}" name="Revue CNGTC" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{02AF7075-0EE0-47EB-9159-4280D9F794D4}" name="A uniformiser ? " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{3A066CAC-4CC5-4BCC-B6A0-5CE762F23952}" name="Détail donnée " dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C67E463F-7FB0-4601-8204-07DC5620D3F3}" name="Commentaire " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1862,13 +1871,13 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,8 +2989,8 @@
       <c r="A50" s="25"/>
       <c r="B50" s="40"/>
       <c r="C50" s="41"/>
-      <c r="D50" s="18" t="s">
-        <v>149</v>
+      <c r="D50" s="120" t="s">
+        <v>170</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>6</v>
@@ -2990,168 +2999,169 @@
       <c r="G50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H50" s="90"/>
+      <c r="H50" s="91"/>
       <c r="I50" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K50" s="21"/>
+        <v>154</v>
+      </c>
+      <c r="J50" s="119"/>
+      <c r="K50" s="102"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="B51" s="40"/>
       <c r="C51" s="41"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="70"/>
+      <c r="D51" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="109"/>
+      <c r="G51" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="90"/>
+      <c r="I51" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="112"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="73"/>
-    </row>
-    <row r="53" spans="1:11" s="50" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="47" t="s">
+      <c r="C52" s="41"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="70"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="73"/>
+    </row>
+    <row r="54" spans="1:11" s="50" customFormat="1" ht="144" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="47" t="s">
+      <c r="E54" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F53" s="115"/>
-      <c r="G53" s="48" t="s">
+      <c r="F54" s="115"/>
+      <c r="G54" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H53" s="98"/>
-      <c r="I53" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="49" t="s">
+      <c r="H54" s="98"/>
+      <c r="I54" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="49" t="s">
+      <c r="K54" s="49" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="50" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="H54" s="99"/>
-      <c r="I54" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="J54" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54" s="53" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="50" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="D55" s="51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E55" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F55" s="116"/>
       <c r="G55" s="52" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H55" s="99"/>
       <c r="I55" s="52" t="s">
         <v>92</v>
       </c>
       <c r="J55" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="50" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="116"/>
+      <c r="G56" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" s="99"/>
+      <c r="I56" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J56" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="53" t="s">
+      <c r="K56" s="53" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="50" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="47" t="s">
+    <row r="57" spans="1:11" s="50" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="47"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="H56" s="98"/>
-      <c r="I56" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49" t="s">
+      <c r="E57" s="47"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="98"/>
+      <c r="I57" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="116"/>
-      <c r="G57" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="H57" s="99"/>
-      <c r="I57" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="J57" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="K57" s="53"/>
     </row>
     <row r="58" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D58" s="51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E58" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="116"/>
       <c r="G58" s="52" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H58" s="99"/>
       <c r="I58" s="52" t="s">
         <v>92</v>
       </c>
       <c r="J58" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K58" s="53"/>
     </row>
     <row r="59" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" s="51" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E59" s="51" t="s">
         <v>6</v>
@@ -3162,74 +3172,74 @@
       </c>
       <c r="H59" s="99"/>
       <c r="I59" s="52" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J59" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K59" s="53"/>
+    </row>
+    <row r="60" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="116"/>
+      <c r="G60" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="99"/>
+      <c r="I60" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="K59" s="53"/>
-    </row>
-    <row r="60" spans="1:11" s="50" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="47" t="s">
+      <c r="K60" s="53"/>
+    </row>
+    <row r="61" spans="1:11" s="50" customFormat="1" ht="108" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="48" t="s">
+      <c r="E61" s="47"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="98"/>
-      <c r="I60" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49" t="s">
+      <c r="H61" s="98"/>
+      <c r="I61" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="116"/>
-      <c r="G61" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="H61" s="99"/>
-      <c r="I61" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="J61" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" s="53"/>
     </row>
     <row r="62" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E62" s="51" t="s">
         <v>6</v>
       </c>
       <c r="F62" s="116"/>
       <c r="G62" s="52" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H62" s="99"/>
       <c r="I62" s="52" t="s">
         <v>92</v>
       </c>
       <c r="J62" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K62" s="53"/>
     </row>
     <row r="63" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" s="51" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="E63" s="51" t="s">
         <v>6</v>
@@ -3240,65 +3250,62 @@
       </c>
       <c r="H63" s="99"/>
       <c r="I63" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J63" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K63" s="53"/>
+    </row>
+    <row r="64" spans="1:11" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="116"/>
+      <c r="G64" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H64" s="99"/>
+      <c r="I64" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="J63" s="53" t="s">
+      <c r="J64" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="K63" s="53"/>
-    </row>
-    <row r="64" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="F64" s="117"/>
-      <c r="G64" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="H64" s="100"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="K64" s="57" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+      <c r="K64" s="53"/>
+    </row>
+    <row r="65" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="25"/>
       <c r="B65" s="54"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="109"/>
-      <c r="G65" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H65" s="90"/>
-      <c r="I65" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J65" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+      <c r="C65" s="54"/>
+      <c r="D65" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="117"/>
+      <c r="G65" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" s="100"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="25"/>
       <c r="B66" s="54"/>
-      <c r="C66" s="26"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>57</v>
@@ -3312,16 +3319,16 @@
         <v>92</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="25"/>
       <c r="B67" s="54"/>
-      <c r="C67" s="28"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>57</v>
@@ -3335,16 +3342,16 @@
         <v>92</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="26"/>
+      <c r="C68" s="28"/>
       <c r="D68" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>57</v>
@@ -3358,16 +3365,16 @@
         <v>92</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="28"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>57</v>
@@ -3381,16 +3388,16 @@
         <v>92</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="54"/>
-      <c r="C70" s="26"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>57</v>
@@ -3404,16 +3411,16 @@
         <v>92</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
       <c r="B71" s="54"/>
-      <c r="C71" s="28"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>57</v>
@@ -3427,16 +3434,16 @@
         <v>92</v>
       </c>
       <c r="J71" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
       <c r="B72" s="54"/>
-      <c r="C72" s="26"/>
+      <c r="C72" s="28"/>
       <c r="D72" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>57</v>
@@ -3450,16 +3457,16 @@
         <v>92</v>
       </c>
       <c r="J72" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
       <c r="B73" s="54"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="18" t="s">
-        <v>151</v>
+      <c r="C73" s="26"/>
+      <c r="D73" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>57</v>
@@ -3473,16 +3480,16 @@
         <v>92</v>
       </c>
       <c r="J73" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K73" s="21"/>
     </row>
     <row r="74" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="25"/>
       <c r="B74" s="54"/>
-      <c r="C74" s="26"/>
+      <c r="C74" s="28"/>
       <c r="D74" s="18" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>57</v>
@@ -3496,16 +3503,16 @@
         <v>92</v>
       </c>
       <c r="J74" s="21" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="25"/>
       <c r="B75" s="54"/>
-      <c r="C75" s="28"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E75" s="19" t="s">
         <v>57</v>
@@ -3519,39 +3526,39 @@
         <v>92</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K75" s="102"/>
-    </row>
-    <row r="76" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="25"/>
       <c r="B76" s="54"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="19" t="s">
-        <v>54</v>
+      <c r="C76" s="28"/>
+      <c r="D76" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="F76" s="109"/>
       <c r="G76" s="20" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="H76" s="90"/>
       <c r="I76" s="20" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="K76" s="21"/>
+        <v>166</v>
+      </c>
+      <c r="K76" s="102"/>
     </row>
     <row r="77" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
       <c r="B77" s="54"/>
-      <c r="C77" s="103"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>6</v>
@@ -3565,45 +3572,58 @@
         <v>59</v>
       </c>
       <c r="J77" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="101"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
+      <c r="C78" s="103"/>
+      <c r="D78" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="109"/>
+      <c r="G78" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="90"/>
+      <c r="I78" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J78" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="108"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="89"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-    </row>
-    <row r="80" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="77"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="78"/>
-      <c r="K80" s="78"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
     </row>
     <row r="81" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D81" s="77"/>
@@ -3705,8 +3725,18 @@
       <c r="J90" s="78"/>
       <c r="K90" s="78"/>
     </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E91" s="24"/>
+    <row r="91" spans="4:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="77"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="91"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E92" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
